--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-915795.7432152228</v>
+        <v>-918632.0767772747</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.7041034359431</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>113.3925356780434</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>30.10883314956743</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>69.7866896066712</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>31.62224931585617</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.6715292898798</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>142.050693484315</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.67731766039434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187186</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>26.32047127784246</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>32.95673252054305</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>2.479720697487882</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>349.0590774711183</v>
       </c>
       <c r="G8" t="n">
-        <v>11.69565874785282</v>
+        <v>411.6956587478528</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>71.41398539475799</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.8237621768017</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0570866064539</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>34.52496257709583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>9.088102692012511</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1227,10 +1227,10 @@
         <v>135.4135598774898</v>
       </c>
       <c r="H9" t="n">
-        <v>93.59611992440284</v>
+        <v>93.59611992440287</v>
       </c>
       <c r="I9" t="n">
-        <v>22.9485420930432</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.8350609940665</v>
+        <v>135.8350609940666</v>
       </c>
       <c r="T9" t="n">
         <v>192.3856464773766</v>
       </c>
       <c r="U9" t="n">
-        <v>45.42078815602341</v>
+        <v>225.8144112069142</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>59.90289428811496</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2307741915701</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>273.0182835986474</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>148.9055307001842</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.9213505529821</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>128.0835075905704</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>4.019807611472036</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>39.39795577638999</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>75.96788793061758</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.996253843244</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>149.9095691544923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>112.5284434523312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.40260836685067</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352493</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.5322560492186</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>150.5322560492186</v>
+        <v>51.51007317746134</v>
       </c>
       <c r="D2" t="n">
-        <v>150.5322560492186</v>
+        <v>51.51007317746134</v>
       </c>
       <c r="E2" t="n">
-        <v>150.5322560492186</v>
+        <v>51.51007317746134</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>51.51007317746134</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799755</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799755</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X2" t="n">
-        <v>268.4151888127975</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127975</v>
+        <v>166.0479880037678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.4282065123045</v>
+        <v>228.9854025143575</v>
       </c>
       <c r="C3" t="n">
-        <v>307.4282065123045</v>
+        <v>228.9854025143575</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510533</v>
+        <v>228.9854025143575</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>228.9854025143575</v>
       </c>
       <c r="F3" t="n">
         <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810723</v>
+        <v>691.074259448092</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528707</v>
+        <v>436.8369027198904</v>
       </c>
       <c r="X3" t="n">
-        <v>515.1885052772584</v>
+        <v>228.9854025143575</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.4282065123045</v>
+        <v>228.9854025143575</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443.3889527368035</v>
+        <v>508.9289270581992</v>
       </c>
       <c r="C4" t="n">
-        <v>274.4527698088966</v>
+        <v>508.9289270581992</v>
       </c>
       <c r="D4" t="n">
-        <v>274.4527698088966</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="E4" t="n">
-        <v>274.4527698088966</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="F4" t="n">
-        <v>274.4527698088966</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348208</v>
+        <v>911.369971031969</v>
       </c>
       <c r="W4" t="n">
-        <v>671.3785036348208</v>
+        <v>911.369971031969</v>
       </c>
       <c r="X4" t="n">
-        <v>443.3889527368035</v>
+        <v>911.369971031969</v>
       </c>
       <c r="Y4" t="n">
-        <v>443.3889527368035</v>
+        <v>690.5773918884389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300.438579740743</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>300.438579740743</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>300.438579740743</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>634.1670622275112</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>367.7894056603332</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>367.7894056603332</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>300.438579740743</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>417.0502399245977</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>417.0502399245977</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4680,16 +4680,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742821</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460806</v>
+        <v>793.1170771501986</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405477</v>
+        <v>585.2655769446658</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755938</v>
+        <v>585.2655769446658</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.8069210092334</v>
+        <v>475.5321020619889</v>
       </c>
       <c r="C7" t="n">
-        <v>493.8069210092334</v>
+        <v>306.595919134082</v>
       </c>
       <c r="D7" t="n">
-        <v>493.8069210092334</v>
+        <v>306.595919134082</v>
       </c>
       <c r="E7" t="n">
-        <v>460.5172922006041</v>
+        <v>306.595919134082</v>
       </c>
       <c r="F7" t="n">
-        <v>313.6273447026937</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
         <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092334</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U7" t="n">
-        <v>493.8069210092334</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V7" t="n">
-        <v>493.8069210092334</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W7" t="n">
-        <v>493.8069210092334</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="X7" t="n">
-        <v>493.8069210092334</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.8069210092334</v>
+        <v>657.1805668922286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1583.454842292052</v>
+        <v>1274.001391516774</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.492325351641</v>
+        <v>1274.001391516774</v>
       </c>
       <c r="D8" t="n">
-        <v>856.22662674489</v>
+        <v>1274.001391516774</v>
       </c>
       <c r="E8" t="n">
-        <v>470.4383741466458</v>
+        <v>888.2131389185292</v>
       </c>
       <c r="F8" t="n">
-        <v>59.45246935703822</v>
+        <v>535.6282121800259</v>
       </c>
       <c r="G8" t="n">
-        <v>47.63867264203537</v>
+        <v>119.774011424619</v>
       </c>
       <c r="H8" t="n">
-        <v>47.63867264203537</v>
+        <v>119.774011424619</v>
       </c>
       <c r="I8" t="n">
-        <v>47.63867264203537</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="J8" t="n">
-        <v>171.48806566999</v>
+        <v>171.4880656699893</v>
       </c>
       <c r="K8" t="n">
-        <v>407.8447194216994</v>
+        <v>407.8447194216978</v>
       </c>
       <c r="L8" t="n">
-        <v>737.9678103436236</v>
+        <v>737.9678103436211</v>
       </c>
       <c r="M8" t="n">
-        <v>1136.962794348213</v>
+        <v>1136.96279434821</v>
       </c>
       <c r="N8" t="n">
-        <v>1547.027742709244</v>
+        <v>1547.02774270924</v>
       </c>
       <c r="O8" t="n">
-        <v>1920.905184126189</v>
+        <v>1920.905184126183</v>
       </c>
       <c r="P8" t="n">
-        <v>2205.499929556279</v>
+        <v>2205.499929556273</v>
       </c>
       <c r="Q8" t="n">
-        <v>2371.045984538619</v>
+        <v>2371.045984538613</v>
       </c>
       <c r="R8" t="n">
-        <v>2381.933632101768</v>
+        <v>2381.933632101761</v>
       </c>
       <c r="S8" t="n">
-        <v>2381.933632101768</v>
+        <v>2253.828821822163</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.933632101768</v>
+        <v>2253.828821822163</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.933632101768</v>
+        <v>2000.235805047967</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.933632101768</v>
+        <v>2000.235805047967</v>
       </c>
       <c r="W8" t="n">
-        <v>2347.059932528944</v>
+        <v>1647.467149777853</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.594174267864</v>
+        <v>1274.001391516774</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.454842292052</v>
+        <v>1274.001391516774</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3013790023132</v>
+        <v>908.1210334537847</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8483497211862</v>
+        <v>733.6680041726577</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9139400599349</v>
+        <v>584.7335945114064</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6764850544795</v>
+        <v>425.496139505951</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1419270813645</v>
+        <v>278.9615815328359</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3605534677384</v>
+        <v>142.1802079192098</v>
       </c>
       <c r="H9" t="n">
-        <v>70.81901819056385</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="I9" t="n">
-        <v>47.63867264203537</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="J9" t="n">
-        <v>102.5846757192109</v>
+        <v>102.5846757192104</v>
       </c>
       <c r="K9" t="n">
-        <v>274.6509713736359</v>
+        <v>427.7094788078481</v>
       </c>
       <c r="L9" t="n">
-        <v>552.3378813359259</v>
+        <v>705.3963887701373</v>
       </c>
       <c r="M9" t="n">
-        <v>895.7422757888005</v>
+        <v>1048.800783223011</v>
       </c>
       <c r="N9" t="n">
-        <v>1262.644207646923</v>
+        <v>1415.702715081133</v>
       </c>
       <c r="O9" t="n">
-        <v>1576.067999987777</v>
+        <v>1729.126507421986</v>
       </c>
       <c r="P9" t="n">
-        <v>2068.645292556931</v>
+        <v>2276.621807415414</v>
       </c>
       <c r="Q9" t="n">
-        <v>2381.933632101768</v>
+        <v>2381.933632101761</v>
       </c>
       <c r="R9" t="n">
-        <v>2381.933632101768</v>
+        <v>2381.933632101761</v>
       </c>
       <c r="S9" t="n">
-        <v>2244.726499784529</v>
+        <v>2244.726499784522</v>
       </c>
       <c r="T9" t="n">
-        <v>2050.397563948795</v>
+        <v>2050.397563948788</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.517979952812</v>
+        <v>1822.302199093319</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.365871721069</v>
+        <v>1587.150090861576</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.128514992868</v>
+        <v>1332.912734133375</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.277014787335</v>
+        <v>1125.061233927842</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.516716022381</v>
+        <v>917.3009351628882</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>661.4945360625815</v>
+        <v>575.1125625930699</v>
       </c>
       <c r="C10" t="n">
-        <v>492.5583531346746</v>
+        <v>406.176379665163</v>
       </c>
       <c r="D10" t="n">
-        <v>342.4417137223388</v>
+        <v>256.0597402528273</v>
       </c>
       <c r="E10" t="n">
-        <v>194.5286201399457</v>
+        <v>108.1466466704342</v>
       </c>
       <c r="F10" t="n">
-        <v>47.63867264203537</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="G10" t="n">
-        <v>47.63867264203537</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="H10" t="n">
-        <v>47.63867264203537</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="I10" t="n">
-        <v>47.63867264203537</v>
+        <v>47.63867264203522</v>
       </c>
       <c r="J10" t="n">
-        <v>68.46255322872294</v>
+        <v>68.46255322872258</v>
       </c>
       <c r="K10" t="n">
-        <v>232.5194225895873</v>
+        <v>232.5194225895866</v>
       </c>
       <c r="L10" t="n">
-        <v>497.982167171233</v>
+        <v>497.9821671712319</v>
       </c>
       <c r="M10" t="n">
-        <v>788.2645338037953</v>
+        <v>788.2645338037937</v>
       </c>
       <c r="N10" t="n">
-        <v>1077.07925099268</v>
+        <v>1077.079250992678</v>
       </c>
       <c r="O10" t="n">
-        <v>1327.830092818695</v>
+        <v>1327.830092818692</v>
       </c>
       <c r="P10" t="n">
-        <v>1518.87007431848</v>
+        <v>1518.870074318477</v>
       </c>
       <c r="Q10" t="n">
-        <v>1567.701174973406</v>
+        <v>1567.701174973403</v>
       </c>
       <c r="R10" t="n">
-        <v>1567.701174973406</v>
+        <v>1567.701174973403</v>
       </c>
       <c r="S10" t="n">
-        <v>1567.701174973406</v>
+        <v>1567.701174973403</v>
       </c>
       <c r="T10" t="n">
-        <v>1567.701174973406</v>
+        <v>1567.701174973403</v>
       </c>
       <c r="U10" t="n">
-        <v>1567.701174973406</v>
+        <v>1278.579180840504</v>
       </c>
       <c r="V10" t="n">
-        <v>1567.701174973406</v>
+        <v>1023.894692634617</v>
       </c>
       <c r="W10" t="n">
-        <v>1291.925130934369</v>
+        <v>1023.894692634617</v>
       </c>
       <c r="X10" t="n">
-        <v>1063.935580036351</v>
+        <v>795.9051417366001</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.1430008928212</v>
+        <v>575.1125625930699</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200311</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
         <v>1461.457663018651</v>
@@ -5057,34 +5057,34 @@
         <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820543</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476973</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206858</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969967</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>372.2013186925058</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="M12" t="n">
-        <v>964.2196729446335</v>
+        <v>733.6583989593863</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5176,16 +5176,16 @@
         <v>1098.385284034031</v>
       </c>
       <c r="C13" t="n">
-        <v>929.4491011061237</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D13" t="n">
-        <v>779.332461693788</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113949</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134845</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G13" t="n">
         <v>317.3152257880633</v>
@@ -5194,7 +5194,7 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5224,25 +5224,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.205584149098</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.129370463825</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.444882257938</v>
+        <v>1790.243498044761</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.027712220977</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="X13" t="n">
-        <v>1412.027712220977</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="Y13" t="n">
-        <v>1191.235133077447</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5288,22 +5288,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>265.0731740618515</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>97.87707477673149</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5470,16 +5470,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,25 +5528,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.402603663004</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350971</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227614</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>626.3497813227614</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>479.459833824851</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>312.2637345397309</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>170.551903381929</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,22 +5765,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,49 +6218,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7646,25 +7646,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7798,7 +7798,7 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.3429583777515</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>154.6045529638517</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>262.9900338679416</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.85285775052286</v>
+        <v>25.85285775052307</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.0297382275375</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>382.7253414961426</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.69863504724454</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.91062962895519</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>124.0541357332576</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>179.1866975757048</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5.297948387947969</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.58839950885078</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>32.89260457060006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1041776.17225506</v>
+        <v>1041776.172255059</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191226.9044959733</v>
+        <v>191226.9044959732</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>220736.9372004586</v>
+        <v>220736.9372004585</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26332,25 +26332,25 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
+        <v>221965.3149147517</v>
+      </c>
+      <c r="J2" t="n">
+        <v>221965.3149147518</v>
+      </c>
+      <c r="K2" t="n">
         <v>221965.3149147516</v>
-      </c>
-      <c r="J2" t="n">
-        <v>221965.3149147517</v>
-      </c>
-      <c r="K2" t="n">
-        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>345599.0058342579</v>
+        <v>345599.0058342561</v>
       </c>
       <c r="E3" t="n">
-        <v>538787.8148163059</v>
+        <v>538787.8148163077</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504087</v>
+        <v>11452.2631150414</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>83967.88161710596</v>
+        <v>83967.88161710552</v>
       </c>
       <c r="M3" t="n">
-        <v>160143.7177104617</v>
+        <v>160143.7177104622</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180393.0773552262</v>
+        <v>180393.0773552261</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>154340.8467657957</v>
+        <v>154340.8467657963</v>
       </c>
       <c r="E4" t="n">
-        <v>11770.44359558042</v>
+        <v>11770.44359558047</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26436,16 +26436,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>19767.8354798993</v>
@@ -26454,10 +26454,10 @@
         <v>19767.83547989931</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>89393.27759322658</v>
+        <v>89393.27759322643</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732301.9566547124</v>
+        <v>-732616.1346748641</v>
       </c>
       <c r="C6" t="n">
-        <v>-89383.3817547659</v>
+        <v>-89383.38175476574</v>
       </c>
       <c r="D6" t="n">
-        <v>-363546.6434806022</v>
+        <v>-363546.6434806008</v>
       </c>
       <c r="E6" t="n">
-        <v>-429963.4497252661</v>
+        <v>-430009.3547208337</v>
       </c>
       <c r="F6" t="n">
-        <v>97613.54575899791</v>
+        <v>97578.80783356169</v>
       </c>
       <c r="G6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="H6" t="n">
-        <v>109065.8088740386</v>
+        <v>109031.070948603</v>
       </c>
       <c r="I6" t="n">
-        <v>109065.8088740387</v>
+        <v>109031.0709486033</v>
       </c>
       <c r="J6" t="n">
-        <v>40066.65445492469</v>
+        <v>40031.91652948913</v>
       </c>
       <c r="K6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.070948603</v>
       </c>
       <c r="L6" t="n">
-        <v>25097.92725693276</v>
+        <v>25063.18933149755</v>
       </c>
       <c r="M6" t="n">
-        <v>-57289.18233159838</v>
+        <v>-57289.18233159876</v>
       </c>
       <c r="N6" t="n">
-        <v>99777.51802315871</v>
+        <v>99777.5180231586</v>
       </c>
       <c r="O6" t="n">
-        <v>102854.5353788633</v>
+        <v>102854.5353788634</v>
       </c>
       <c r="P6" t="n">
         <v>102854.5353788634</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>897.2608433614546</v>
+        <v>897.260843361453</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>595.483408025442</v>
+        <v>595.4834080254402</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>283.2058295919762</v>
+        <v>283.2058295919747</v>
       </c>
       <c r="E3" t="n">
-        <v>460.7802053549312</v>
+        <v>460.7802053549328</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625287693</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>331.7695280239358</v>
+        <v>331.7695280239341</v>
       </c>
       <c r="E4" t="n">
-        <v>564.6618823005649</v>
+        <v>564.6618823005665</v>
       </c>
       <c r="F4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>331.7695280239359</v>
+        <v>331.7695280239341</v>
       </c>
       <c r="M4" t="n">
-        <v>564.6618823005649</v>
+        <v>564.6618823005665</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>331.7695280239358</v>
+        <v>331.7695280239341</v>
       </c>
       <c r="M4" t="n">
-        <v>564.6618823005649</v>
+        <v>564.6618823005665</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>251.8803560929642</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.5393036088091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>75.28252278671268</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.1507358876213</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>38.21213774866678</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>110.086949839513</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.5606209956592</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114878</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>225.3745118830772</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>113.4772301260261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>216.1049326546069</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>57.81696827059318</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>302.5338066903381</v>
       </c>
       <c r="I8" t="n">
-        <v>71.41398539475773</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.8237621768015</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.3058622603534</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0570866064539</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>314.7160061403172</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.4450809578548</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.94854209304332</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>180.3936230508908</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>85.51815373481628</v>
       </c>
       <c r="G10" t="n">
         <v>166.3729680015774</v>
@@ -28029,7 +28029,7 @@
         <v>147.8415806253494</v>
       </c>
       <c r="I10" t="n">
-        <v>106.7924606675912</v>
+        <v>106.7924606675913</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.5417170941244</v>
+        <v>104.5417170941245</v>
       </c>
       <c r="S10" t="n">
         <v>195.8190728447771</v>
@@ -28065,13 +28065,13 @@
         <v>221.0322681761523</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2307741915701</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>13.50471473794363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.607078767282227</v>
+        <v>3.60707876728222</v>
       </c>
       <c r="H8" t="n">
-        <v>36.94099542542912</v>
+        <v>36.94099542542905</v>
       </c>
       <c r="I8" t="n">
-        <v>139.0619041756482</v>
+        <v>139.0619041756479</v>
       </c>
       <c r="J8" t="n">
-        <v>306.1463015246202</v>
+        <v>306.1463015246196</v>
       </c>
       <c r="K8" t="n">
-        <v>458.8339457436769</v>
+        <v>458.8339457436761</v>
       </c>
       <c r="L8" t="n">
-        <v>569.2240825678905</v>
+        <v>569.2240825678895</v>
       </c>
       <c r="M8" t="n">
-        <v>633.3714695955458</v>
+        <v>633.3714695955447</v>
       </c>
       <c r="N8" t="n">
-        <v>643.6200821430864</v>
+        <v>643.6200821430853</v>
       </c>
       <c r="O8" t="n">
-        <v>607.7521926509238</v>
+        <v>607.7521926509227</v>
       </c>
       <c r="P8" t="n">
-        <v>518.7024355836437</v>
+        <v>518.7024355836428</v>
       </c>
       <c r="Q8" t="n">
-        <v>389.5239272303488</v>
+        <v>389.5239272303481</v>
       </c>
       <c r="R8" t="n">
-        <v>226.5831616152924</v>
+        <v>226.583161615292</v>
       </c>
       <c r="S8" t="n">
-        <v>82.19630740944382</v>
+        <v>82.19630740944368</v>
       </c>
       <c r="T8" t="n">
-        <v>15.78998730377796</v>
+        <v>15.78998730377793</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2885663013825781</v>
+        <v>0.2885663013825776</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.929957285720865</v>
+        <v>1.929957285720861</v>
       </c>
       <c r="H9" t="n">
-        <v>18.63932431209362</v>
+        <v>18.63932431209358</v>
       </c>
       <c r="I9" t="n">
-        <v>66.44809075837188</v>
+        <v>66.44809075837176</v>
       </c>
       <c r="J9" t="n">
-        <v>182.3386398759349</v>
+        <v>182.3386398759345</v>
       </c>
       <c r="K9" t="n">
-        <v>311.6457780192328</v>
+        <v>311.6457780192322</v>
       </c>
       <c r="L9" t="n">
-        <v>419.0462080246115</v>
+        <v>419.0462080246107</v>
       </c>
       <c r="M9" t="n">
-        <v>489.0071596319927</v>
+        <v>489.0071596319918</v>
       </c>
       <c r="N9" t="n">
-        <v>501.9497240612349</v>
+        <v>501.949724061234</v>
       </c>
       <c r="O9" t="n">
-        <v>459.1859336776304</v>
+        <v>459.1859336776296</v>
       </c>
       <c r="P9" t="n">
-        <v>368.5371943233114</v>
+        <v>368.5371943233108</v>
       </c>
       <c r="Q9" t="n">
-        <v>246.3573545772809</v>
+        <v>246.3573545772805</v>
       </c>
       <c r="R9" t="n">
-        <v>119.8266462134411</v>
+        <v>119.8266462134409</v>
       </c>
       <c r="S9" t="n">
-        <v>35.8481101097713</v>
+        <v>35.84811010977123</v>
       </c>
       <c r="T9" t="n">
-        <v>7.779082217445061</v>
+        <v>7.779082217445048</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1269708740605832</v>
+        <v>0.126970874060583</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.618011356881311</v>
+        <v>1.618011356881309</v>
       </c>
       <c r="H10" t="n">
-        <v>14.38559188209022</v>
+        <v>14.38559188209019</v>
       </c>
       <c r="I10" t="n">
-        <v>48.65801425966709</v>
+        <v>48.658014259667</v>
       </c>
       <c r="J10" t="n">
-        <v>114.3934029315087</v>
+        <v>114.3934029315085</v>
       </c>
       <c r="K10" t="n">
-        <v>187.9835012813014</v>
+        <v>187.9835012813011</v>
       </c>
       <c r="L10" t="n">
-        <v>240.5541611857906</v>
+        <v>240.5541611857902</v>
       </c>
       <c r="M10" t="n">
-        <v>253.6306347882223</v>
+        <v>253.6306347882218</v>
       </c>
       <c r="N10" t="n">
-        <v>247.5998651853012</v>
+        <v>247.5998651853008</v>
       </c>
       <c r="O10" t="n">
-        <v>228.6985506980967</v>
+        <v>228.6985506980963</v>
       </c>
       <c r="P10" t="n">
-        <v>195.6911190177178</v>
+        <v>195.6911190177175</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.4863873475796</v>
+        <v>135.4863873475794</v>
       </c>
       <c r="R10" t="n">
-        <v>72.75167428304513</v>
+        <v>72.75167428304501</v>
       </c>
       <c r="S10" t="n">
-        <v>28.19752519219521</v>
+        <v>28.19752519219516</v>
       </c>
       <c r="T10" t="n">
-        <v>6.913321252129237</v>
+        <v>6.913321252129226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08825516492079891</v>
+        <v>0.08825516492079875</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>420.7661933823239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>306.4674191928274</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
@@ -31859,7 +31859,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954398</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496884</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>125.1003969979339</v>
+        <v>125.1003969979333</v>
       </c>
       <c r="K8" t="n">
-        <v>238.7440946986964</v>
+        <v>238.7440946986956</v>
       </c>
       <c r="L8" t="n">
-        <v>333.4576675979033</v>
+        <v>333.4576675979022</v>
       </c>
       <c r="M8" t="n">
-        <v>403.0252363682731</v>
+        <v>403.025236368272</v>
       </c>
       <c r="N8" t="n">
-        <v>414.2070185464955</v>
+        <v>414.2070185464943</v>
       </c>
       <c r="O8" t="n">
-        <v>377.653981229237</v>
+        <v>377.6539812292359</v>
       </c>
       <c r="P8" t="n">
-        <v>287.4694398283742</v>
+        <v>287.4694398283733</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.2182373558993</v>
+        <v>167.2182373558987</v>
       </c>
       <c r="R8" t="n">
-        <v>10.99762380116024</v>
+        <v>10.99762380115985</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>55.50101320926819</v>
+        <v>55.50101320926785</v>
       </c>
       <c r="K9" t="n">
-        <v>173.8043390448738</v>
+        <v>328.4088920087249</v>
       </c>
       <c r="L9" t="n">
-        <v>280.4918282447373</v>
+        <v>280.4918282447366</v>
       </c>
       <c r="M9" t="n">
-        <v>346.8731257099744</v>
+        <v>346.8731257099735</v>
       </c>
       <c r="N9" t="n">
-        <v>370.6080119779016</v>
+        <v>370.6080119779007</v>
       </c>
       <c r="O9" t="n">
-        <v>316.589689233186</v>
+        <v>316.5896892331852</v>
       </c>
       <c r="P9" t="n">
-        <v>497.5528207769228</v>
+        <v>553.0255555489177</v>
       </c>
       <c r="Q9" t="n">
-        <v>316.4528682271085</v>
+        <v>106.375580491259</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>21.03422281483593</v>
+        <v>21.03422281483573</v>
       </c>
       <c r="K10" t="n">
-        <v>165.7140094554186</v>
+        <v>165.7140094554182</v>
       </c>
       <c r="L10" t="n">
-        <v>268.1441864461068</v>
+        <v>268.1441864461063</v>
       </c>
       <c r="M10" t="n">
-        <v>293.2145117500629</v>
+        <v>293.2145117500624</v>
       </c>
       <c r="N10" t="n">
-        <v>291.7320375645298</v>
+        <v>291.7320375645294</v>
       </c>
       <c r="O10" t="n">
-        <v>253.2836786121364</v>
+        <v>253.283678612136</v>
       </c>
       <c r="P10" t="n">
-        <v>192.9696782826113</v>
+        <v>192.9696782826109</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.32434409588525</v>
+        <v>49.32434409588502</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>282.2118136024497</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
@@ -35507,7 +35507,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121065</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
